--- a/data/Andante/order-client_structure.xlsx
+++ b/data/Andante/order-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6831" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6780" uniqueCount="430">
   <si>
     <t>Class Name</t>
   </si>
@@ -1263,10 +1263,10 @@
     <t>120</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>62</t>
@@ -15958,7 +15958,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C340"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15977,10 +15977,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>413</v>
@@ -15988,13 +15988,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
@@ -16002,7 +16002,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>414</v>
@@ -16013,10 +16013,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6">
@@ -16024,10 +16024,10 @@
         <v>43</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7">
@@ -16035,10 +16035,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8">
@@ -16046,10 +16046,10 @@
         <v>43</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9">
@@ -16057,10 +16057,10 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10">
@@ -16068,10 +16068,10 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11">
@@ -16079,10 +16079,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12">
@@ -16090,10 +16090,10 @@
         <v>43</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13">
@@ -16101,10 +16101,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14">
@@ -16112,10 +16112,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15">
@@ -16123,32 +16123,32 @@
         <v>43</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18">
@@ -16156,10 +16156,10 @@
         <v>58</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19">
@@ -16167,7 +16167,7 @@
         <v>58</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>417</v>
@@ -16178,7 +16178,7 @@
         <v>58</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>417</v>
@@ -16189,7 +16189,7 @@
         <v>58</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>417</v>
@@ -16200,7 +16200,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>417</v>
@@ -16211,7 +16211,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>417</v>
@@ -16222,7 +16222,7 @@
         <v>58</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>417</v>
@@ -16233,7 +16233,7 @@
         <v>58</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>417</v>
@@ -16244,7 +16244,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>417</v>
@@ -16255,7 +16255,7 @@
         <v>58</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>417</v>
@@ -16266,10 +16266,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29">
@@ -16277,87 +16277,87 @@
         <v>58</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37">
@@ -16365,10 +16365,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38">
@@ -16376,10 +16376,10 @@
         <v>80</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39">
@@ -16387,10 +16387,10 @@
         <v>80</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40">
@@ -16398,10 +16398,10 @@
         <v>80</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41">
@@ -16409,10 +16409,10 @@
         <v>80</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42">
@@ -16420,10 +16420,10 @@
         <v>80</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43">
@@ -16431,10 +16431,10 @@
         <v>80</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44">
@@ -16442,10 +16442,10 @@
         <v>80</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45">
@@ -16453,10 +16453,10 @@
         <v>80</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46">
@@ -16464,10 +16464,10 @@
         <v>80</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47">
@@ -16475,10 +16475,10 @@
         <v>80</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
@@ -16486,183 +16486,183 @@
         <v>80</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>388</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>420</v>
@@ -16670,10 +16670,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>420</v>
@@ -16681,43 +16681,43 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>420</v>
@@ -16725,10 +16725,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>420</v>
@@ -16736,87 +16736,87 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>388</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>420</v>
@@ -16824,10 +16824,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>420</v>
@@ -16835,255 +16835,255 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103">
@@ -17091,10 +17091,10 @@
         <v>149</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104">
@@ -17102,10 +17102,10 @@
         <v>149</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105">
@@ -17113,10 +17113,10 @@
         <v>149</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="106">
@@ -17124,10 +17124,10 @@
         <v>149</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107">
@@ -17135,10 +17135,10 @@
         <v>149</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108">
@@ -17146,10 +17146,10 @@
         <v>149</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="109">
@@ -17157,10 +17157,10 @@
         <v>149</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="110">
@@ -17168,197 +17168,197 @@
         <v>149</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128">
@@ -17366,10 +17366,10 @@
         <v>167</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129">
@@ -17377,10 +17377,10 @@
         <v>167</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130">
@@ -17388,10 +17388,10 @@
         <v>167</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131">
@@ -17399,10 +17399,10 @@
         <v>167</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132">
@@ -17410,10 +17410,10 @@
         <v>167</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133">
@@ -17421,10 +17421,10 @@
         <v>167</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134">
@@ -17432,10 +17432,10 @@
         <v>167</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135">
@@ -17443,10 +17443,10 @@
         <v>167</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136">
@@ -17454,10 +17454,10 @@
         <v>167</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137">
@@ -17465,194 +17465,194 @@
         <v>167</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>426</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>388</v>
@@ -17660,21 +17660,21 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>417</v>
@@ -17682,10 +17682,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>417</v>
@@ -17693,43 +17693,43 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>417</v>
@@ -17737,10 +17737,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>417</v>
@@ -17748,10 +17748,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>417</v>
@@ -17759,10 +17759,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>417</v>
@@ -17770,65 +17770,65 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>388</v>
@@ -17836,10 +17836,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>388</v>
@@ -17847,10 +17847,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>417</v>
@@ -17858,10 +17858,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>417</v>
@@ -17869,10 +17869,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>417</v>
@@ -17880,10 +17880,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>417</v>
@@ -17891,549 +17891,549 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>388</v>
+        <v>427</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>117</v>
+        <v>258</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>420</v>
+        <v>388</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>388</v>
@@ -18441,189 +18441,189 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="243">
@@ -18631,10 +18631,10 @@
         <v>67</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="244">
@@ -18642,10 +18642,10 @@
         <v>67</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="245">
@@ -18653,10 +18653,10 @@
         <v>67</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="246">
@@ -18664,10 +18664,10 @@
         <v>67</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="247">
@@ -18675,10 +18675,10 @@
         <v>67</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="248">
@@ -18686,10 +18686,10 @@
         <v>67</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="249">
@@ -18697,10 +18697,10 @@
         <v>67</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="250">
@@ -18708,10 +18708,10 @@
         <v>67</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="251">
@@ -18719,10 +18719,10 @@
         <v>67</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>281</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="252">
@@ -18730,10 +18730,10 @@
         <v>67</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="253">
@@ -18741,10 +18741,10 @@
         <v>67</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="254">
@@ -18752,10 +18752,10 @@
         <v>67</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="255">
@@ -18763,10 +18763,10 @@
         <v>67</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>413</v>
+        <v>429</v>
       </c>
     </row>
     <row r="256">
@@ -18774,18 +18774,18 @@
         <v>67</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>413</v>
@@ -18793,384 +18793,384 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>47</v>
+        <v>292</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>49</v>
+        <v>299</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>51</v>
+        <v>294</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>5</v>
+        <v>297</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>56</v>
+        <v>295</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>388</v>
@@ -19178,241 +19178,241 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>287</v>
+        <v>54</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>287</v>
+        <v>54</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>198</v>
+        <v>309</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="C314" t="s" s="0">
         <v>413</v>
@@ -19420,287 +19420,100 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>304</v>
+        <v>111</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>53</v>
+        <v>316</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>306</v>
+        <v>117</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>308</v>
+        <v>116</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>307</v>
+        <v>114</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B324" t="s" s="0">
-        <v>312</v>
-      </c>
-      <c r="C324" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B325" t="s" s="0">
-        <v>314</v>
-      </c>
-      <c r="C325" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B326" t="s" s="0">
-        <v>313</v>
-      </c>
-      <c r="C326" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B327" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C327" t="s" s="0">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B328" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C328" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B329" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C329" t="s" s="0">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B330" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C330" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B331" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="C331" t="s" s="0">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B332" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="C332" t="s" s="0">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B333" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="C333" t="s" s="0">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B334" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C334" t="s" s="0">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B335" t="s" s="0">
-        <v>316</v>
-      </c>
-      <c r="C335" t="s" s="0">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B336" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="C336" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B337" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C337" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B338" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C338" t="s" s="0">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B339" t="s" s="0">
-        <v>317</v>
-      </c>
-      <c r="C339" t="s" s="0">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B340" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C340" t="s" s="0">
         <v>420</v>
       </c>
     </row>

--- a/data/Andante/order-client_structure.xlsx
+++ b/data/Andante/order-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6780" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6831" uniqueCount="430">
   <si>
     <t>Class Name</t>
   </si>
@@ -996,99 +996,99 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
-  </si>
-  <si>
     <t>pageNumber</t>
   </si>
   <si>
     <t>rsqlQuery</t>
   </si>
   <si>
+    <t>sortingOrder</t>
+  </si>
+  <si>
     <t>pageSize</t>
   </si>
   <si>
-    <t>sortingOrder</t>
+    <t>orderEntriesIds</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>totalCost</t>
   </si>
   <si>
     <t>paymentMethod</t>
   </si>
   <si>
-    <t>orderEntriesIds</t>
-  </si>
-  <si>
-    <t>location</t>
+    <t>paymentCost</t>
+  </si>
+  <si>
+    <t>deliveryCost</t>
+  </si>
+  <si>
+    <t>deliveryMethod</t>
+  </si>
+  <si>
+    <t>client</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>deliveryCost</t>
-  </si>
-  <si>
     <t>deliveryLocation</t>
   </si>
   <si>
-    <t>paymentCost</t>
-  </si>
-  <si>
-    <t>totalCost</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>deliveryMethod</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>orderIds</t>
   </si>
   <si>
     <t>emailAddress</t>
   </si>
   <si>
-    <t>orderIds</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>orderEntries</t>
   </si>
   <si>
     <t>operationType</t>
   </si>
   <si>
+    <t>OLDEST_FIRST</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>OLDEST_FIRST</t>
-  </si>
-  <si>
     <t>NEWEST_FIRST</t>
   </si>
   <si>
     <t>CANCELED</t>
   </si>
   <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
     <t>NEW</t>
   </si>
   <si>
-    <t>COMPLETED</t>
-  </si>
-  <si>
     <t>PICKUP_POINT</t>
   </si>
   <si>
@@ -1104,40 +1104,43 @@
     <t>productVariant</t>
   </si>
   <si>
+    <t>streetNumber</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
     <t>flatNumber</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>streetNumber</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>postCode</t>
-  </si>
-  <si>
     <t>deliveryOrdersIds</t>
   </si>
   <si>
+    <t>clientId</t>
+  </si>
+  <si>
     <t>locationId</t>
   </si>
   <si>
     <t>deliveryLocationId</t>
   </si>
   <si>
-    <t>clientId</t>
+    <t>orderedQuantityChange</t>
   </si>
   <si>
     <t>variantId</t>
   </si>
   <si>
-    <t>orderedQuantityChange</t>
+    <t>identifier</t>
   </si>
   <si>
     <t>productVariantId</t>
@@ -1146,9 +1149,6 @@
     <t>orderId</t>
   </si>
   <si>
-    <t>identifier</t>
-  </si>
-  <si>
     <t>ALPHABETICAL_STREET</t>
   </si>
   <si>
@@ -1161,15 +1161,15 @@
     <t>violationMessages</t>
   </si>
   <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>GOOGLE_PAY</t>
+  </si>
+  <si>
     <t>PAY_U</t>
   </si>
   <si>
-    <t>GOOGLE_PAY</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -1263,10 +1263,10 @@
     <t>120</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>62</t>
@@ -15958,7 +15958,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C323"/>
+  <dimension ref="A1:C340"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15977,10 +15977,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>413</v>
@@ -15988,13 +15988,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
@@ -16002,7 +16002,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>414</v>
@@ -16013,10 +16013,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6">
@@ -16024,10 +16024,10 @@
         <v>43</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7">
@@ -16035,10 +16035,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8">
@@ -16046,10 +16046,10 @@
         <v>43</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9">
@@ -16057,10 +16057,10 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10">
@@ -16068,10 +16068,10 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11">
@@ -16079,10 +16079,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12">
@@ -16090,10 +16090,10 @@
         <v>43</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13">
@@ -16101,10 +16101,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14">
@@ -16112,10 +16112,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15">
@@ -16123,32 +16123,32 @@
         <v>43</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18">
@@ -16156,10 +16156,10 @@
         <v>58</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19">
@@ -16167,7 +16167,7 @@
         <v>58</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>417</v>
@@ -16178,7 +16178,7 @@
         <v>58</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>417</v>
@@ -16189,7 +16189,7 @@
         <v>58</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>417</v>
@@ -16200,7 +16200,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>417</v>
@@ -16211,7 +16211,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>417</v>
@@ -16222,7 +16222,7 @@
         <v>58</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>417</v>
@@ -16233,7 +16233,7 @@
         <v>58</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>417</v>
@@ -16244,7 +16244,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>417</v>
@@ -16255,7 +16255,7 @@
         <v>58</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>417</v>
@@ -16266,10 +16266,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29">
@@ -16277,87 +16277,87 @@
         <v>58</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37">
@@ -16365,10 +16365,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38">
@@ -16376,10 +16376,10 @@
         <v>80</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39">
@@ -16387,10 +16387,10 @@
         <v>80</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40">
@@ -16398,10 +16398,10 @@
         <v>80</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41">
@@ -16409,10 +16409,10 @@
         <v>80</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
@@ -16420,10 +16420,10 @@
         <v>80</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43">
@@ -16431,10 +16431,10 @@
         <v>80</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44">
@@ -16442,10 +16442,10 @@
         <v>80</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45">
@@ -16453,10 +16453,10 @@
         <v>80</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46">
@@ -16464,10 +16464,10 @@
         <v>80</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47">
@@ -16475,10 +16475,10 @@
         <v>80</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
@@ -16486,183 +16486,183 @@
         <v>80</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>420</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>420</v>
@@ -16670,10 +16670,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>420</v>
@@ -16681,43 +16681,43 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>420</v>
@@ -16725,10 +16725,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>420</v>
@@ -16736,87 +16736,87 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>420</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>420</v>
@@ -16824,10 +16824,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>420</v>
@@ -16835,255 +16835,255 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103">
@@ -17091,10 +17091,10 @@
         <v>149</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104">
@@ -17102,10 +17102,10 @@
         <v>149</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105">
@@ -17113,10 +17113,10 @@
         <v>149</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="106">
@@ -17124,10 +17124,10 @@
         <v>149</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107">
@@ -17135,10 +17135,10 @@
         <v>149</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108">
@@ -17146,10 +17146,10 @@
         <v>149</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109">
@@ -17157,10 +17157,10 @@
         <v>149</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110">
@@ -17168,197 +17168,197 @@
         <v>149</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="128">
@@ -17366,10 +17366,10 @@
         <v>167</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="129">
@@ -17377,10 +17377,10 @@
         <v>167</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130">
@@ -17388,10 +17388,10 @@
         <v>167</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131">
@@ -17399,10 +17399,10 @@
         <v>167</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132">
@@ -17410,10 +17410,10 @@
         <v>167</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133">
@@ -17421,10 +17421,10 @@
         <v>167</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134">
@@ -17432,10 +17432,10 @@
         <v>167</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135">
@@ -17443,10 +17443,10 @@
         <v>167</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136">
@@ -17454,10 +17454,10 @@
         <v>167</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137">
@@ -17465,194 +17465,194 @@
         <v>167</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>388</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>388</v>
@@ -17660,21 +17660,21 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>417</v>
@@ -17682,10 +17682,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>417</v>
@@ -17693,43 +17693,43 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>417</v>
@@ -17737,10 +17737,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>417</v>
@@ -17748,10 +17748,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>417</v>
@@ -17759,10 +17759,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>417</v>
@@ -17770,65 +17770,65 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>388</v>
@@ -17836,10 +17836,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>388</v>
@@ -17847,10 +17847,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>417</v>
@@ -17858,10 +17858,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>417</v>
@@ -17869,10 +17869,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>417</v>
@@ -17880,10 +17880,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>417</v>
@@ -17891,549 +17891,549 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>427</v>
+        <v>388</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>388</v>
+        <v>420</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>388</v>
@@ -18441,189 +18441,189 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="243">
@@ -18631,10 +18631,10 @@
         <v>67</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="244">
@@ -18642,10 +18642,10 @@
         <v>67</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="245">
@@ -18653,10 +18653,10 @@
         <v>67</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="246">
@@ -18664,10 +18664,10 @@
         <v>67</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="247">
@@ -18675,10 +18675,10 @@
         <v>67</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="248">
@@ -18686,10 +18686,10 @@
         <v>67</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="249">
@@ -18697,10 +18697,10 @@
         <v>67</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="250">
@@ -18708,10 +18708,10 @@
         <v>67</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="251">
@@ -18719,10 +18719,10 @@
         <v>67</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="252">
@@ -18730,10 +18730,10 @@
         <v>67</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="253">
@@ -18741,10 +18741,10 @@
         <v>67</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="254">
@@ -18752,10 +18752,10 @@
         <v>67</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="255">
@@ -18763,10 +18763,10 @@
         <v>67</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="256">
@@ -18774,18 +18774,18 @@
         <v>67</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>413</v>
@@ -18793,384 +18793,384 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>49</v>
+        <v>278</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>294</v>
+        <v>51</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>297</v>
+        <v>5</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>295</v>
+        <v>56</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>296</v>
+        <v>23</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>388</v>
@@ -19178,241 +19178,241 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>312</v>
+        <v>66</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>311</v>
+        <v>66</v>
       </c>
       <c r="C314" t="s" s="0">
         <v>413</v>
@@ -19420,100 +19420,287 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>316</v>
+        <v>53</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>117</v>
+        <v>306</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B323" t="s" s="0">
+      <c r="B333" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B340" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="C323" t="s" s="0">
+      <c r="C340" t="s" s="0">
         <v>420</v>
       </c>
     </row>
@@ -19582,7 +19769,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -19590,7 +19777,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>18</v>
@@ -19610,7 +19797,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
@@ -19652,7 +19839,7 @@
         <v>110</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -19666,7 +19853,7 @@
         <v>110</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -19680,7 +19867,7 @@
         <v>110</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>182</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -19694,7 +19881,7 @@
         <v>110</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
@@ -19708,7 +19895,7 @@
         <v>110</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>149</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12">
@@ -19722,7 +19909,7 @@
         <v>110</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>231</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
@@ -19736,7 +19923,7 @@
         <v>110</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14">
@@ -19750,7 +19937,7 @@
         <v>110</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>274</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -19764,7 +19951,7 @@
         <v>110</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
@@ -19778,7 +19965,7 @@
         <v>110</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>178</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17">
@@ -19792,7 +19979,7 @@
         <v>110</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>271</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
@@ -19806,7 +19993,7 @@
         <v>110</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>133</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -19820,7 +20007,7 @@
         <v>110</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>80</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20">
@@ -19834,7 +20021,7 @@
         <v>110</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
@@ -19848,7 +20035,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -19856,7 +20043,7 @@
         <v>74</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>18</v>
@@ -19876,7 +20063,7 @@
         <v>18</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
@@ -19890,7 +20077,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -19898,7 +20085,7 @@
         <v>77</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>18</v>
@@ -19918,7 +20105,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
@@ -19946,7 +20133,7 @@
         <v>110</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -19974,7 +20161,7 @@
         <v>110</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -19982,7 +20169,7 @@
         <v>80</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>110</v>
@@ -20044,7 +20231,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -20052,7 +20239,7 @@
         <v>103</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>18</v>
@@ -20072,7 +20259,7 @@
         <v>18</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
@@ -20083,10 +20270,10 @@
         <v>349</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
@@ -20097,10 +20284,10 @@
         <v>350</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -20156,7 +20343,7 @@
         <v>18</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -20164,7 +20351,7 @@
         <v>130</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>18</v>
@@ -20184,7 +20371,7 @@
         <v>18</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46">
@@ -20206,13 +20393,13 @@
         <v>133</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48">
@@ -20220,13 +20407,13 @@
         <v>133</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49">
@@ -20248,13 +20435,13 @@
         <v>137</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51">
@@ -20262,13 +20449,13 @@
         <v>137</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52">
@@ -20296,7 +20483,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -20304,7 +20491,7 @@
         <v>141</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>18</v>
@@ -20324,7 +20511,7 @@
         <v>18</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56">
@@ -20346,13 +20533,13 @@
         <v>144</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58">
@@ -20360,13 +20547,13 @@
         <v>144</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>226</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -20374,13 +20561,13 @@
         <v>144</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60">
@@ -20388,13 +20575,13 @@
         <v>149</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -20402,13 +20589,13 @@
         <v>149</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -20416,13 +20603,13 @@
         <v>149</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
@@ -20458,13 +20645,13 @@
         <v>149</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -20472,7 +20659,7 @@
         <v>149</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>110</v>
@@ -20486,13 +20673,13 @@
         <v>149</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68">
@@ -20500,13 +20687,13 @@
         <v>149</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
@@ -20514,13 +20701,13 @@
         <v>167</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>182</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
@@ -20528,7 +20715,7 @@
         <v>167</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>110</v>
@@ -20542,13 +20729,13 @@
         <v>167</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72">
@@ -20556,13 +20743,13 @@
         <v>167</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>137</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73">
@@ -20570,13 +20757,13 @@
         <v>167</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74">
@@ -20598,13 +20785,13 @@
         <v>167</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
@@ -20618,7 +20805,7 @@
         <v>110</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77">
@@ -20626,13 +20813,13 @@
         <v>167</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -20640,13 +20827,13 @@
         <v>167</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79">
@@ -20660,7 +20847,7 @@
         <v>110</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
@@ -20674,7 +20861,7 @@
         <v>110</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81">
@@ -20682,7 +20869,7 @@
         <v>87</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>110</v>
@@ -20696,13 +20883,13 @@
         <v>87</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
@@ -20710,13 +20897,13 @@
         <v>87</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -20724,7 +20911,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>110</v>
@@ -20738,7 +20925,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>110</v>
@@ -20752,7 +20939,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>110</v>
@@ -20772,7 +20959,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -20780,7 +20967,7 @@
         <v>203</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>18</v>
@@ -20800,7 +20987,7 @@
         <v>18</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90">
@@ -20808,13 +20995,13 @@
         <v>175</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>83</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -20822,13 +21009,13 @@
         <v>175</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92">
@@ -20836,13 +21023,13 @@
         <v>175</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>83</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93">
@@ -20850,7 +21037,7 @@
         <v>175</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>110</v>
@@ -20864,13 +21051,13 @@
         <v>175</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
@@ -20878,13 +21065,13 @@
         <v>175</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>178</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96">
@@ -20892,13 +21079,13 @@
         <v>175</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>137</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97">
@@ -20906,13 +21093,13 @@
         <v>175</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>178</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98">
@@ -20920,13 +21107,13 @@
         <v>175</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99">
@@ -20934,13 +21121,13 @@
         <v>175</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100">
@@ -20954,7 +21141,7 @@
         <v>18</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -20962,7 +21149,7 @@
         <v>211</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>18</v>
@@ -20982,7 +21169,7 @@
         <v>18</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103">
@@ -20996,7 +21183,7 @@
         <v>18</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -21004,7 +21191,7 @@
         <v>214</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>18</v>
@@ -21024,7 +21211,7 @@
         <v>18</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106">
@@ -21088,13 +21275,13 @@
         <v>126</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
@@ -21102,13 +21289,13 @@
         <v>126</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112">
@@ -21150,7 +21337,7 @@
         <v>110</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115">
@@ -21164,7 +21351,7 @@
         <v>110</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
@@ -21178,7 +21365,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -21186,7 +21373,7 @@
         <v>239</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>18</v>
@@ -21206,7 +21393,7 @@
         <v>18</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119">
@@ -21214,13 +21401,13 @@
         <v>242</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120">
@@ -21228,7 +21415,7 @@
         <v>242</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
@@ -21242,13 +21429,13 @@
         <v>242</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122">
@@ -21284,7 +21471,7 @@
         <v>250</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>110</v>
@@ -21298,13 +21485,13 @@
         <v>250</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126">
@@ -21318,7 +21505,7 @@
         <v>110</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127">
@@ -21326,13 +21513,13 @@
         <v>250</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>242</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -21346,7 +21533,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -21354,7 +21541,7 @@
         <v>257</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>18</v>
@@ -21374,7 +21561,7 @@
         <v>18</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131">
@@ -21388,7 +21575,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
@@ -21396,7 +21583,7 @@
         <v>260</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>18</v>
@@ -21416,7 +21603,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134">
@@ -21430,7 +21617,7 @@
         <v>18</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -21438,7 +21625,7 @@
         <v>263</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>18</v>
@@ -21458,7 +21645,7 @@
         <v>18</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137">
@@ -21466,13 +21653,13 @@
         <v>67</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138">
@@ -21480,13 +21667,13 @@
         <v>67</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139">
@@ -21494,7 +21681,7 @@
         <v>67</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>110</v>
@@ -21508,13 +21695,13 @@
         <v>67</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141">
@@ -21528,7 +21715,7 @@
         <v>110</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>231</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142">
@@ -21536,13 +21723,13 @@
         <v>67</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143">
@@ -21550,13 +21737,13 @@
         <v>67</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144">
@@ -21564,13 +21751,13 @@
         <v>67</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>274</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145">
@@ -21578,13 +21765,13 @@
         <v>67</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>182</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146">
@@ -21592,13 +21779,13 @@
         <v>67</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>80</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147">
@@ -21606,13 +21793,13 @@
         <v>67</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>178</v>
+        <v>231</v>
       </c>
     </row>
     <row r="148">
@@ -21620,13 +21807,13 @@
         <v>67</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>86</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149">
@@ -21640,7 +21827,7 @@
         <v>110</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150">
@@ -21648,13 +21835,13 @@
         <v>253</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>242</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -21676,13 +21863,13 @@
         <v>253</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="153">
@@ -21690,13 +21877,13 @@
         <v>247</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>67</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154">
@@ -21704,13 +21891,13 @@
         <v>247</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>129</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155">
@@ -21724,7 +21911,7 @@
         <v>18</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -21732,7 +21919,7 @@
         <v>287</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>18</v>
@@ -21752,7 +21939,7 @@
         <v>18</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="158">
@@ -21766,7 +21953,7 @@
         <v>18</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -21774,7 +21961,7 @@
         <v>290</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>18</v>
@@ -21794,7 +21981,7 @@
         <v>18</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="161">
@@ -21802,7 +21989,7 @@
         <v>154</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>110</v>
@@ -21816,13 +22003,13 @@
         <v>154</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -21830,13 +22017,13 @@
         <v>154</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -21844,7 +22031,7 @@
         <v>154</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>110</v>
@@ -21858,13 +22045,13 @@
         <v>154</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166">
@@ -21872,13 +22059,13 @@
         <v>154</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="167">
@@ -21886,7 +22073,7 @@
         <v>154</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>110</v>
@@ -21914,7 +22101,7 @@
         <v>154</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>110</v>
@@ -21934,7 +22121,7 @@
         <v>110</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171">
@@ -21942,13 +22129,13 @@
         <v>54</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -21956,13 +22143,13 @@
         <v>54</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="173">
@@ -21970,13 +22157,13 @@
         <v>54</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174">
@@ -21984,13 +22171,13 @@
         <v>303</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -21998,13 +22185,13 @@
         <v>303</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>231</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176">
@@ -22012,7 +22199,7 @@
         <v>303</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>18</v>
@@ -22032,7 +22219,7 @@
         <v>18</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="178">
@@ -22054,13 +22241,13 @@
         <v>220</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="180">
@@ -22068,13 +22255,13 @@
         <v>220</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181">
@@ -22082,7 +22269,7 @@
         <v>220</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>110</v>
@@ -22110,13 +22297,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>315</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184">
@@ -22124,7 +22311,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
@@ -22138,13 +22325,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>182</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
